--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntn2-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntn2-Cntn1.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01086633333333333</v>
+        <v>0.023556</v>
       </c>
       <c r="H2">
-        <v>0.032599</v>
+        <v>0.07066799999999999</v>
       </c>
       <c r="I2">
-        <v>0.03298188672296692</v>
+        <v>0.08088674619362546</v>
       </c>
       <c r="J2">
-        <v>0.03298188672296692</v>
+        <v>0.08088674619362549</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0003727514544444444</v>
+        <v>0.0008080493199999998</v>
       </c>
       <c r="R2">
-        <v>0.00335476309</v>
+        <v>0.00727244388</v>
       </c>
       <c r="S2">
-        <v>0.03298188672296692</v>
+        <v>0.08088674619362546</v>
       </c>
       <c r="T2">
-        <v>0.03298188672296692</v>
+        <v>0.08088674619362549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.7504299999999999</v>
       </c>
       <c r="I3">
-        <v>0.7592440643429574</v>
+        <v>0.8589438069010353</v>
       </c>
       <c r="J3">
-        <v>0.7592440643429573</v>
+        <v>0.8589438069010354</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,13 +629,13 @@
         <v>0.008580750144444444</v>
       </c>
       <c r="R3">
-        <v>0.07722675129999998</v>
+        <v>0.07722675129999999</v>
       </c>
       <c r="S3">
-        <v>0.7592440643429574</v>
+        <v>0.8589438069010353</v>
       </c>
       <c r="T3">
-        <v>0.7592440643429573</v>
+        <v>0.8589438069010354</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.068454</v>
+        <v>0.01752266666666667</v>
       </c>
       <c r="H4">
-        <v>0.205362</v>
+        <v>0.052568</v>
       </c>
       <c r="I4">
-        <v>0.2077740489340757</v>
+        <v>0.0601694469053391</v>
       </c>
       <c r="J4">
-        <v>0.2077740489340757</v>
+        <v>0.06016944690533912</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.00234820038</v>
+        <v>0.0006010858755555555</v>
       </c>
       <c r="R4">
-        <v>0.02113380342</v>
+        <v>0.00540977288</v>
       </c>
       <c r="S4">
-        <v>0.2077740489340757</v>
+        <v>0.0601694469053391</v>
       </c>
       <c r="T4">
-        <v>0.2077740489340757</v>
+        <v>0.06016944690533912</v>
       </c>
     </row>
   </sheetData>
